--- a/quizWorkbook.xlsx
+++ b/quizWorkbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="368" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="226" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Correct Answers</t>
+  </si>
+  <si>
+    <t>a3</t>
   </si>
   <si>
     <t>Good</t>
@@ -164,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -197,6 +200,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -427,11 +437,11 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -452,27 +462,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,7 +490,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -488,7 +498,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -496,11 +506,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,8 +518,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Output" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Output" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -586,7 +592,7 @@
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -598,7 +604,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -633,7 +639,7 @@
   <dimension ref="B2:K10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,20 +734,20 @@
       <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>15</v>
+      <c r="F5" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -789,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>12</v>
@@ -820,20 +826,20 @@
       <c r="E10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/quizWorkbook.xlsx
+++ b/quizWorkbook.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="226" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="226" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Questions" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Questions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -31,7 +30,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Radio
+          <t>Radio
 Checkbox
 Image</t>
         </r>
@@ -61,7 +60,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Radio
+          <t>Radio
 Checkbox
 Image</t>
         </r>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -158,37 +157,22 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Q2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -212,7 +196,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -220,7 +204,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -228,7 +212,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -243,7 +227,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFC0504D"/>
       <name val="Calibri"/>
@@ -302,14 +286,14 @@
     </fill>
   </fills>
   <borders count="13">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -324,203 +308,218 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Good" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Excel Built-in Output" xfId="21" builtinId="54" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -579,93 +578,556 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="2" max="2" width="17.7109375"/>
+    <col min="3" max="3" width="59"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1457489878542"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="2" max="2" width="18.140625"/>
+    <col min="3" max="3" width="25.42578125"/>
+    <col min="4" max="4" width="13.5703125"/>
+    <col min="5" max="5" width="22.140625"/>
+    <col min="6" max="6" width="14.28515625"/>
+    <col min="7" max="7" width="8.5703125"/>
+    <col min="8" max="8" width="14.42578125"/>
+    <col min="9" max="9" width="18.7109375"/>
+    <col min="10" max="10" width="13.42578125"/>
+    <col min="11" max="11" width="19.140625"/>
+    <col min="12" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
@@ -675,89 +1137,89 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="5"/>
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="16" t="s">
+    <row r="5" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
@@ -767,94 +1229,83 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="5"/>
+      <c r="H8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="16" t="s">
+    <row r="10" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="H8:I8"/>
@@ -862,14 +1313,21 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>